--- a/biology/Microbiologie/Liste_des_ordres_du_règne_des_protistes/Liste_des_ordres_du_règne_des_protistes.xlsx
+++ b/biology/Microbiologie/Liste_des_ordres_du_règne_des_protistes/Liste_des_ordres_du_règne_des_protistes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_ordres_du_r%C3%A8gne_des_protistes</t>
+          <t>Liste_des_ordres_du_règne_des_protistes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article fournit la liste des ordres du règne des protistes. Les protistes sont les eucaryotes autres que les animaux (Métazoaires), les champignons (Eumycètes) et les plantes (des Embryophytes aux Archaeplastida, selon les définitions). 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_ordres_du_r%C3%A8gne_des_protistes</t>
+          <t>Liste_des_ordres_du_règne_des_protistes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Unikonta
-Phylum Amoebozoa
-Subphylum Conosa
+          <t>Unikonta</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Phylum Amoebozoa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Subphylum Conosa
 Infraphylum Archamoebae Cavalier-Smith, 1983
 Class Archamoebea
 Order Mastigamoebida
@@ -546,9 +566,47 @@
 Class Variosea
 Order Centramoebida
 Order Phalansteriida
-Order Varipodida
-Phylum Choanozoa
-Subphylum Choanofila
+Order Varipodida</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_ordres_du_règne_des_protistes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ordres_du_r%C3%A8gne_des_protistes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Unikonta</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Phylum Choanozoa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Subphylum Choanofila
 Class Choanoflagellatea
 Order Choanoflagellida
 Order Acanthoecida
@@ -560,10 +618,47 @@
 Subphylum Cristidiscoidea
 Class Discicristoidea
 Order Fonticulida
-Order Nucleariida
-Bikonta
-Archaeplastida
-Division Glaucophyta
+Order Nucleariida</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_ordres_du_règne_des_protistes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ordres_du_r%C3%A8gne_des_protistes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bikonta</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Archaeplastida</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Division Glaucophyta
 Class Glaucophyceae Bohlin, 1901
 Order Glaucocystales Bessey, 1907
 Division Rhodophyta
@@ -619,9 +714,47 @@
 Class Compsopogonophyceae G.W. Saunders &amp; Hommersand, 2004
 Order Compsopogonales Skuja, 1939
 Order Erythropeltidales Garbary, 1980
-Order Rhodochaetales Bessey, 1907
-Chromalveolata
-Chromista
+Order Rhodochaetales Bessey, 1907</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_ordres_du_règne_des_protistes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ordres_du_r%C3%A8gne_des_protistes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bikonta</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Chromalveolata</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chromista
 Division Heterokontophyta
 Class Actinochrysophyceae Cavalier-Smith, 1995
 Subclass Abaxodinae Mikrjukov, 2001
@@ -830,9 +963,47 @@
 Class Noctiluciphyceae Fensome, 1993
 Order Noctilucales Haeckel, 1894
 Class Syndiniophyceae Loeblich III, 1976
-Order Syndiniales Loeblich III, 1976
-Excavata
-Eozoa
+Order Syndiniales Loeblich III, 1976</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_ordres_du_règne_des_protistes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ordres_du_r%C3%A8gne_des_protistes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bikonta</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Excavata</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Eozoa
 Phylum Loukozoa
 Class Jakobea Cavalier-Smith, 1999
 Order Jakobida
@@ -884,9 +1055,47 @@
 Subphylum Saccostoma
 Class Kinetoplastea
 Order Bodonida Hollande, 1952
-Order Trypanosomatida (Kent, 1880) Hollande, 1952
-Rhizaria
-Phylum Cercozoa
+Order Trypanosomatida (Kent, 1880) Hollande, 1952</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_ordres_du_règne_des_protistes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ordres_du_r%C3%A8gne_des_protistes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bikonta</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Rhizaria</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Phylum Cercozoa
 Subphylum Filosa
 Superclass Reticulofilosa
 Class Chlorarachnea
@@ -953,34 +1162,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_ordres_du_r%C3%A8gne_des_protistes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_ordres_du_règne_des_protistes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_ordres_du_r%C3%A8gne_des_protistes</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Autres classifications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (10 septembre 2013)[1]
-règne Protozoa
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (10 septembre 2013)[1]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>règne Protozoa
 embranchement Choanozoa Cavalier-Smith
 classe Choanoflagellatea
 ordre Acanthoecida T.Cavalier-Smith
@@ -1007,9 +1221,43 @@
 ordre Schizopyrenida
 embranchement Protozoa incertae sedis
 classe Ebriophyceae
-ordre Ebriales Honigberg &amp; al.
-Selon Catalogue of Life                                   (10 septembre 2013)[2]
-règne Protozoa
+ordre Ebriales Honigberg &amp; al.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_ordres_du_règne_des_protistes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ordres_du_r%C3%A8gne_des_protistes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Autres classifications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (10 septembre 2013)[2]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>règne Protozoa
 embranchement Apicomplexa
 classe Conoidasida
 ordre Eucoccidiorida
@@ -1121,9 +1369,43 @@
 classe Psamminida
 4 familles
 classe Stannomida
-famille Stannomidae
-Selon World Register of Marine Species                               (10 septembre 2013)[3]
-(Taxons marins uniquements):
+famille Stannomidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_ordres_du_règne_des_protistes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_ordres_du_r%C3%A8gne_des_protistes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Autres classifications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (10 septembre 2013)[3]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Taxons marins uniquements):
 embranchement Amoebozoa
 classe Archamoebea
 ordre Mastigamoebida
